--- a/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
@@ -306,6 +306,9 @@
   </x:si>
   <x:si>
     <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>493</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -953,7 +956,7 @@
     </x:row>
     <x:row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="20">
         <x:v>44239</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
@@ -309,6 +309,12 @@
   </x:si>
   <x:si>
     <x:t>493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -956,7 +962,7 @@
     </x:row>
     <x:row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="20">
         <x:v>44239</x:v>
@@ -1001,7 +1007,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>30</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
@@ -315,6 +315,12 @@
   </x:si>
   <x:si>
     <x:t>02.08.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -962,7 +968,7 @@
     </x:row>
     <x:row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B2" s="20">
         <x:v>44239</x:v>
@@ -1007,7 +1013,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>30</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/CompanyDirectives.xlsx
@@ -308,19 +308,10 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.08.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>697</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -968,7 +959,7 @@
     </x:row>
     <x:row r="2" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <x:c r="A2" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B2" s="20">
         <x:v>44239</x:v>
@@ -1013,7 +1004,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="P2" t="s">
-        <x:v>48</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q2" t="s">
         <x:v>30</x:v>
